--- a/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
+++ b/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,12 +216,6 @@
     <t>12/12-15.2019</t>
   </si>
   <si>
-    <t>12/1,2,5,20,21/2023</t>
-  </si>
-  <si>
-    <t>12/22,23,27,28/2023</t>
-  </si>
-  <si>
     <t>UT(0-3-7)</t>
   </si>
   <si>
@@ -231,10 +225,76 @@
     <t>A(9-0-0)</t>
   </si>
   <si>
-    <t>11/2-4,7,9,11,14,17,18/2023</t>
-  </si>
-  <si>
     <t>UT(0-6-32)</t>
+  </si>
+  <si>
+    <t>A(13-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-10)</t>
+  </si>
+  <si>
+    <t>A(11-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-59)</t>
+  </si>
+  <si>
+    <t>A(14-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-49)</t>
+  </si>
+  <si>
+    <t>A(10-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-52)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>6/2,8,9,15,22,24,28/2022</t>
+  </si>
+  <si>
+    <t>7/1,5,12-15,18,21,27,28/2022</t>
+  </si>
+  <si>
+    <t>8/1,3,5,10,12,15-19,22,25,26,30/2022</t>
+  </si>
+  <si>
+    <t>9/1,2,7-9,12,15,19,21,22,27/2022</t>
+  </si>
+  <si>
+    <t>10/3, 5-7, 11-14, 24-28/2022</t>
+  </si>
+  <si>
+    <t>11/2-4,7,9,11,14,17,18/2022</t>
+  </si>
+  <si>
+    <t>12/1,2,5,20,21/2022</t>
+  </si>
+  <si>
+    <t>12/22,23,27,28/2022</t>
+  </si>
+  <si>
+    <t>UT(0-2-56)</t>
+  </si>
+  <si>
+    <t>A(12-0-0)</t>
+  </si>
+  <si>
+    <t>5/2,5,10,12,13,16,17,19,20,24,26,27/2022</t>
+  </si>
+  <si>
+    <t>4/4,12,13,21,25,27/2022</t>
+  </si>
+  <si>
+    <t>UT(0-3-22)</t>
+  </si>
+  <si>
+    <t>UT(0-3-58)</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3017,12 +3077,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K148"/>
+  <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A128" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
+      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3245,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.46</v>
+        <v>9.1969999999999743</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4739,7 +4799,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <f t="shared" ref="A83:A148" si="1">EDATE(A82,1)</f>
+        <f t="shared" ref="A83:A154" si="1">EDATE(A82,1)</f>
         <v>43344</v>
       </c>
       <c r="B83" s="20"/>
@@ -5734,11 +5794,15 @@
         <f t="shared" si="1"/>
         <v>44621</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
-      <c r="D130" s="39"/>
+      <c r="D130" s="39">
+        <v>0.496</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
       <c r="G130" s="13">
@@ -5755,11 +5819,15 @@
         <f t="shared" si="1"/>
         <v>44652</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
-      <c r="D131" s="39"/>
+      <c r="D131" s="39">
+        <v>6</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
       <c r="G131" s="13">
@@ -5769,23 +5837,24 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40">
-        <f t="shared" si="1"/>
-        <v>44682</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D132" s="39"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39">
+        <v>0.42099999999999999</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
@@ -5794,14 +5863,18 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <f t="shared" si="1"/>
-        <v>44713</v>
-      </c>
-      <c r="B133" s="20"/>
+        <f>EDATE(A131,1)</f>
+        <v>44682</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C133" s="13">
         <v>1.25</v>
       </c>
-      <c r="D133" s="39"/>
+      <c r="D133" s="39">
+        <v>12</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
@@ -5811,18 +5884,24 @@
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
+      <c r="K133" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <f t="shared" si="1"/>
-        <v>44743</v>
-      </c>
-      <c r="B134" s="20"/>
+        <f>EDATE(A133,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
-      <c r="D134" s="39"/>
+      <c r="D134" s="39">
+        <v>7</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
@@ -5832,23 +5911,24 @@
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <f t="shared" si="1"/>
-        <v>44774</v>
-      </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D135" s="39"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39">
+        <v>0.36699999999999999</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
@@ -5857,14 +5937,18 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <f t="shared" si="1"/>
-        <v>44805</v>
-      </c>
-      <c r="B136" s="20"/>
+        <f>EDATE(A134,1)</f>
+        <v>44743</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
-      <c r="D136" s="39"/>
+      <c r="D136" s="39">
+        <v>10</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
       <c r="G136" s="13">
@@ -5874,23 +5958,24 @@
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40">
-        <f t="shared" si="1"/>
-        <v>44835</v>
-      </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D137" s="39"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39">
+        <v>0.48299999999999998</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
@@ -5899,17 +5984,17 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <f t="shared" si="1"/>
-        <v>44866</v>
+        <f>EDATE(A136,1)</f>
+        <v>44774</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
       <c r="D138" s="39">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
@@ -5921,17 +6006,17 @@
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
-        <v>0.81699999999999995</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
@@ -5947,16 +6032,16 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
       </c>
       <c r="D140" s="39">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
@@ -5968,17 +6053,17 @@
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
-        <v>6</v>
+        <v>0.748</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
@@ -5989,100 +6074,116 @@
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <f>EDATE(A140,1)</f>
+        <v>44835</v>
+      </c>
       <c r="B142" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C142" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39">
-        <v>0.39</v>
+        <v>13</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
+      <c r="K142" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B143" s="15"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C143" s="13"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="39">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="41" t="str">
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H143" s="42"/>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <f>EDATE(A140,1)</f>
-        <v>44927</v>
-      </c>
-      <c r="B144" s="15"/>
+        <f>EDATE(A142,1)</f>
+        <v>44866</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C144" s="13">
         <v>1.25</v>
       </c>
-      <c r="D144" s="42"/>
+      <c r="D144" s="39">
+        <v>9</v>
+      </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H144" s="42"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40">
-        <f t="shared" si="1"/>
-        <v>44958</v>
-      </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D145" s="42"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H145" s="42"/>
-      <c r="I145" s="48"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <f t="shared" si="1"/>
-        <v>44986</v>
-      </c>
-      <c r="B146" s="20"/>
+        <f>EDATE(A144,1)</f>
+        <v>44896</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C146" s="13">
         <v>1.25</v>
       </c>
-      <c r="D146" s="39"/>
+      <c r="D146" s="39">
+        <v>5</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
       <c r="G146" s="13">
@@ -6092,16 +6193,19 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
+      <c r="K146" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40">
-        <f t="shared" si="1"/>
-        <v>45017</v>
-      </c>
-      <c r="B147" s="20"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C147" s="13"/>
-      <c r="D147" s="39"/>
+      <c r="D147" s="39">
+        <v>6</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
       <c r="G147" s="13" t="str">
@@ -6111,16 +6215,19 @@
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
+      <c r="K147" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <f t="shared" si="1"/>
-        <v>45047</v>
-      </c>
-      <c r="B148" s="20"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C148" s="13"/>
-      <c r="D148" s="39"/>
+      <c r="D148" s="39">
+        <v>0.39</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
       <c r="G148" s="13" t="str">
@@ -6131,6 +6238,125 @@
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="15"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="42"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="15"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40">
+        <f>EDATE(A146,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D150" s="42"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H150" s="42"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="15"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40">
+        <f t="shared" si="1"/>
+        <v>44958</v>
+      </c>
+      <c r="B151" s="15"/>
+      <c r="C151" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D151" s="42"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H151" s="42"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="40">
+        <f t="shared" si="1"/>
+        <v>44986</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40">
+        <f t="shared" si="1"/>
+        <v>45017</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="40">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6242,14 +6468,14 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.81699999999999995</v>
+        <v>0.496</v>
       </c>
       <c r="J3" s="1">
         <v>18</v>
@@ -6300,7 +6526,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>237.12700000000001</v>
+        <v>160.86399999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
+++ b/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2570,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2633,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K163" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3077,12 +3077,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K154"/>
+  <dimension ref="A2:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A128" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A139" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3245,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.1969999999999743</v>
+        <v>20.446999999999974</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3255,7 +3255,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>151.667</v>
+        <v>162.917</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <f t="shared" ref="A83:A154" si="1">EDATE(A82,1)</f>
+        <f t="shared" ref="A83:A155" si="1">EDATE(A82,1)</f>
         <v>43344</v>
       </c>
       <c r="B83" s="20"/>
@@ -6326,13 +6326,15 @@
         <v>45017</v>
       </c>
       <c r="B153" s="20"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D153" s="39"/>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G153" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
@@ -6345,18 +6347,193 @@
         <v>45047</v>
       </c>
       <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D154" s="39"/>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G154" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="40">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="40">
+        <f t="shared" ref="A156:A161" si="2">EDATE(A155,1)</f>
+        <v>45108</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40">
+        <f t="shared" si="2"/>
+        <v>45139</v>
+      </c>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="40">
+        <f t="shared" si="2"/>
+        <v>45170</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="40">
+        <f t="shared" si="2"/>
+        <v>45200</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
+        <f t="shared" si="2"/>
+        <v>45231</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <f t="shared" si="2"/>
+        <v>45261</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6526,7 +6703,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>160.86399999999998</v>
+        <v>183.36399999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
+++ b/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>UT(0-3-58)</t>
+  </si>
+  <si>
+    <t>SL(110-0-0)</t>
+  </si>
+  <si>
+    <t>07/26/2023-12/29/2023</t>
   </si>
 </sst>
 </file>
@@ -3080,9 +3086,9 @@
   <dimension ref="A2:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A139" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <pane ySplit="3690" topLeftCell="A127" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3251,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.446999999999974</v>
+        <v>15.446999999999974</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3255,7 +3261,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>162.917</v>
+        <v>52.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6493,11 +6499,15 @@
         <f t="shared" si="2"/>
         <v>45261</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
-      <c r="D161" s="39"/>
+      <c r="D161" s="39">
+        <v>5</v>
+      </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
       <c r="G161" s="13">
@@ -6511,16 +6521,22 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="39">
+        <v>110</v>
+      </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
@@ -6581,7 +6597,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,7 +6719,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>183.36399999999998</v>
+        <v>68.363999999999976</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
+++ b/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,10 +297,25 @@
     <t>UT(0-3-58)</t>
   </si>
   <si>
-    <t>SL(110-0-0)</t>
-  </si>
-  <si>
     <t>07/26/2023-12/29/2023</t>
+  </si>
+  <si>
+    <t>SL(104)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(70)</t>
+  </si>
+  <si>
+    <t>1/2023 - 7/11/2023</t>
+  </si>
+  <si>
+    <t>SL(22-0-0)</t>
+  </si>
+  <si>
+    <t>1/2-31/2024</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2720,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K163" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K175" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3083,12 +3098,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K163"/>
+  <dimension ref="A2:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A127" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3266,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.446999999999974</v>
+        <v>0.44699999999997431</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3261,7 +3276,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.917000000000002</v>
+        <v>0.91700000000000159</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6391,7 +6406,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <f t="shared" ref="A156:A161" si="2">EDATE(A155,1)</f>
+        <f t="shared" ref="A156:A175" si="2">EDATE(A155,1)</f>
         <v>45108</v>
       </c>
       <c r="B156" s="20"/>
@@ -6500,56 +6515,298 @@
         <v>45261</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
-      <c r="D161" s="39">
-        <v>5</v>
-      </c>
+      <c r="D161" s="39"/>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
       <c r="G161" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="39">
+        <v>104</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C162" s="13"/>
-      <c r="D162" s="39"/>
+      <c r="D162" s="39">
+        <v>12</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H162" s="39">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+      <c r="A163" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <f>EDATE(A161,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39">
+        <v>8</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11">
+        <v>14</v>
+      </c>
+      <c r="K164" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <f t="shared" si="2"/>
+        <v>45323</v>
+      </c>
+      <c r="B165" s="15"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
+        <f t="shared" si="2"/>
+        <v>45352</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <f t="shared" si="2"/>
+        <v>45383</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
+        <f t="shared" si="2"/>
+        <v>45444</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
+        <f t="shared" si="2"/>
+        <v>45474</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="40">
+        <f t="shared" si="2"/>
+        <v>45505</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="39"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="40">
+        <f t="shared" si="2"/>
+        <v>45536</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="39"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <f t="shared" si="2"/>
+        <v>45566</v>
+      </c>
+      <c r="B173" s="20"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="39"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="40">
+        <f t="shared" si="2"/>
+        <v>45597</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
+        <f t="shared" si="2"/>
+        <v>45627</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="39"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6719,7 +6976,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>68.363999999999976</v>
+        <v>1.3639999999999759</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
+++ b/REGULAR/CPDO/ROGACION, ROGEL M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>1/2-31/2024</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>02/01-29/2024</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1234,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1298,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1358,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1424,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1487,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1585,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1644,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1709,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1752,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1827,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2013,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2079,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2137,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2203,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2334,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2377,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2443,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2499,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2597,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2660,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3089,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="Z62" sqref="Z62"/>
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,7 +3109,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,7 +3272,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.44699999999997431</v>
+        <v>1.6969999999999743</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6586,7 +6592,9 @@
       <c r="B164" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="13"/>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D164" s="39">
         <v>8</v>
       </c>
@@ -6607,7 +6615,9 @@
         <f t="shared" si="2"/>
         <v>45323</v>
       </c>
-      <c r="B165" s="15"/>
+      <c r="B165" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C165" s="13"/>
       <c r="D165" s="42"/>
       <c r="E165" s="9"/>
@@ -6615,8 +6625,12 @@
       <c r="G165" s="13"/>
       <c r="H165" s="42"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="J165" s="11">
+        <v>21</v>
+      </c>
+      <c r="K165" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
@@ -6976,7 +6990,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>1.3639999999999759</v>
+        <v>2.6139999999999759</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
